--- a/FarmDefense/Assets/Resources/Csv/Manager.xlsx
+++ b/FarmDefense/Assets/Resources/Csv/Manager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\FarmDefense\FarmDefense\Assets\Resources\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DB275C4-ADAB-41BE-9342-0237255E3188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF42F9A-9E95-43B9-BE61-A301CB9CB1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1455" windowWidth="21855" windowHeight="10935" activeTab="5" xr2:uid="{A0F07347-9EAA-4868-B98B-CC2C1BF9D5A4}"/>
+    <workbookView xWindow="13635" yWindow="2055" windowWidth="21855" windowHeight="10935" firstSheet="2" activeTab="7" xr2:uid="{A0F07347-9EAA-4868-B98B-CC2C1BF9D5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerMaster" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1"/>
@@ -95,46 +95,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lv1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lv10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Effect1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -196,72 +156,6 @@
   </si>
   <si>
     <t>W_5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近接攻撃力</t>
-    <rPh sb="0" eb="5">
-      <t>キンセツコウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近接攻撃間隔</t>
-    <rPh sb="0" eb="2">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近接攻撃範囲</t>
-    <rPh sb="0" eb="2">
-      <t>キンセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠距離攻撃力</t>
-    <rPh sb="0" eb="3">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠距離攻撃間隔</t>
-    <rPh sb="0" eb="3">
-      <t>エンキョリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾速度</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ソクド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -349,13 +243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>T_0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -412,6 +299,67 @@
   </si>
   <si>
     <t>WaveNo</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W_1</t>
+  </si>
+  <si>
+    <t>W_2</t>
+  </si>
+  <si>
+    <t>W_3</t>
+  </si>
+  <si>
+    <t>W_4</t>
+  </si>
+  <si>
+    <t>W_5</t>
+  </si>
+  <si>
+    <t>I_1</t>
+  </si>
+  <si>
+    <t>I_2</t>
+  </si>
+  <si>
+    <t>I_3</t>
+  </si>
+  <si>
+    <t>I_4</t>
+  </si>
+  <si>
+    <t>I_5</t>
+  </si>
+  <si>
+    <t>nearAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nearAttackInterval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nearRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>farAttack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>farAttackInterval</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -824,7 +772,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -848,307 +796,424 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20FD97E-5BEA-44F9-B14F-A4058C2FC534}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>16</v>
-      </c>
-      <c r="J2">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
       </c>
       <c r="C3">
         <v>95</v>
       </c>
       <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>90</v>
-      </c>
-      <c r="E3">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>80</v>
-      </c>
-      <c r="G3">
-        <v>75</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
-        <v>65</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <v>74</v>
       </c>
       <c r="D4">
         <v>88</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
         <v>102</v>
-      </c>
-      <c r="F4">
-        <v>116</v>
-      </c>
-      <c r="G4">
-        <v>130</v>
-      </c>
-      <c r="H4">
-        <v>144</v>
-      </c>
-      <c r="I4">
-        <v>158</v>
-      </c>
-      <c r="J4">
-        <v>172</v>
-      </c>
-      <c r="K4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>116</v>
+      </c>
+      <c r="E6">
         <v>9</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>17</v>
-      </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>95</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-      <c r="E6">
-        <v>85</v>
       </c>
       <c r="F6">
         <v>80</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>75</v>
       </c>
-      <c r="H6">
-        <v>70</v>
-      </c>
-      <c r="I6">
-        <v>65</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
-      </c>
-      <c r="K6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
       <c r="D7">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>70</v>
+      </c>
+      <c r="D8">
+        <v>144</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="K7">
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>172</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>186</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>55</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
     </row>
@@ -1176,15 +1241,15 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1192,10 +1257,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1203,10 +1268,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -1214,10 +1279,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1225,10 +1290,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1236,10 +1301,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -1254,466 +1319,462 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4552E4A0-9B92-4C6D-8B2F-22DA1E71A23B}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>200</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2">
-        <v>400</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2">
-        <v>600</v>
-      </c>
-      <c r="H2">
-        <v>700</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2">
-        <v>900</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+      <c r="M3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>300</v>
       </c>
-      <c r="E3">
-        <v>400</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
-      </c>
-      <c r="G3">
-        <v>600</v>
-      </c>
-      <c r="H3">
-        <v>700</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3">
-        <v>900</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
       <c r="C4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D4">
         <v>300</v>
       </c>
       <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>300</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>400</v>
       </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
-      <c r="G4">
-        <v>600</v>
-      </c>
-      <c r="H4">
-        <v>700</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4">
-        <v>900</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
       <c r="C5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D5">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E5">
         <v>400</v>
       </c>
       <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>400</v>
+      </c>
+      <c r="K5">
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <v>400</v>
+      </c>
+      <c r="M5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>500</v>
       </c>
-      <c r="G5">
-        <v>600</v>
-      </c>
-      <c r="H5">
-        <v>700</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5">
-        <v>900</v>
-      </c>
-      <c r="K5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
       <c r="C6">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D6">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>500</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>600</v>
       </c>
-      <c r="H6">
-        <v>700</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6">
-        <v>900</v>
-      </c>
-      <c r="K6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
       <c r="C7">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E7">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G7">
         <v>600</v>
       </c>
       <c r="H7">
+        <v>600</v>
+      </c>
+      <c r="I7">
+        <v>600</v>
+      </c>
+      <c r="J7">
+        <v>600</v>
+      </c>
+      <c r="K7">
+        <v>600</v>
+      </c>
+      <c r="L7">
+        <v>600</v>
+      </c>
+      <c r="M7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>700</v>
       </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7">
-        <v>900</v>
-      </c>
-      <c r="K7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
       <c r="C8">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E8">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G8">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H8">
         <v>700</v>
       </c>
       <c r="I8">
+        <v>700</v>
+      </c>
+      <c r="J8">
+        <v>700</v>
+      </c>
+      <c r="K8">
+        <v>700</v>
+      </c>
+      <c r="L8">
+        <v>700</v>
+      </c>
+      <c r="M8">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>800</v>
       </c>
-      <c r="J8">
-        <v>900</v>
-      </c>
-      <c r="K8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
       <c r="C9">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E9">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G9">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H9">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
       <c r="J9">
+        <v>800</v>
+      </c>
+      <c r="K9">
+        <v>800</v>
+      </c>
+      <c r="L9">
+        <v>800</v>
+      </c>
+      <c r="M9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>900</v>
       </c>
-      <c r="K9">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
       <c r="C10">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="D10">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E10">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G10">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H10">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="I10">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J10">
         <v>900</v>
       </c>
       <c r="K10">
+        <v>900</v>
+      </c>
+      <c r="L10">
+        <v>900</v>
+      </c>
+      <c r="M10">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
       <c r="C11">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D11">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E11">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G11">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="H11">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="I11">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>300</v>
-      </c>
-      <c r="E12">
-        <v>400</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <v>700</v>
-      </c>
-      <c r="I12">
-        <v>800</v>
-      </c>
-      <c r="J12">
-        <v>900</v>
-      </c>
-      <c r="K12">
+      <c r="L11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>300</v>
-      </c>
-      <c r="E13">
-        <v>400</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-      <c r="G13">
-        <v>600</v>
-      </c>
-      <c r="H13">
-        <v>700</v>
-      </c>
-      <c r="I13">
-        <v>800</v>
-      </c>
-      <c r="J13">
-        <v>900</v>
-      </c>
-      <c r="K13">
+      <c r="M11">
         <v>1000</v>
       </c>
     </row>
@@ -1727,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000BDA4E-6132-4D5B-B968-55F5D2277471}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1735,19 +1796,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1755,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1785,16 +1846,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1802,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1816,7 +1877,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1.5</v>
@@ -1830,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1844,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1.8</v>
@@ -1858,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3.3</v>
@@ -1872,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1891,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4608348-DAA9-4ACD-91AD-BFB05D104774}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1902,119 +1963,119 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/FarmDefense/Assets/Resources/Csv/Manager.xlsx
+++ b/FarmDefense/Assets/Resources/Csv/Manager.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347036\Desktop\tashiro\FarmDefense\FarmDefense\Assets\Resources\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF42F9A-9E95-43B9-BE61-A301CB9CB1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2D3DB7-0C5D-48E8-BBD9-889D009D22DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="2055" windowWidth="21855" windowHeight="10935" firstSheet="2" activeTab="7" xr2:uid="{A0F07347-9EAA-4868-B98B-CC2C1BF9D5A4}"/>
+    <workbookView xWindow="10830" yWindow="1755" windowWidth="21855" windowHeight="10935" firstSheet="1" activeTab="1" xr2:uid="{A0F07347-9EAA-4868-B98B-CC2C1BF9D5A4}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerMaster" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>MaxHp</t>
     <phoneticPr fontId="1"/>
@@ -323,21 +323,6 @@
     <t>W_5</t>
   </si>
   <si>
-    <t>I_1</t>
-  </si>
-  <si>
-    <t>I_2</t>
-  </si>
-  <si>
-    <t>I_3</t>
-  </si>
-  <si>
-    <t>I_4</t>
-  </si>
-  <si>
-    <t>I_5</t>
-  </si>
-  <si>
     <t>nearAttack</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,6 +345,37 @@
   <si>
     <t>bulletSpeed</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv2</t>
+  </si>
+  <si>
+    <t>Lv3</t>
+  </si>
+  <si>
+    <t>Lv4</t>
+  </si>
+  <si>
+    <t>Lv5</t>
+  </si>
+  <si>
+    <t>Lv6</t>
+  </si>
+  <si>
+    <t>Lv7</t>
+  </si>
+  <si>
+    <t>Lv8</t>
+  </si>
+  <si>
+    <t>Lv9</t>
+  </si>
+  <si>
+    <t>Lv10</t>
   </si>
 </sst>
 </file>
@@ -723,6 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C03F54-F181-4390-B49B-DE4C1091AAE4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -769,10 +786,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9A77D3-250F-4003-9457-0377FF49E303}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -956,6 +974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20FD97E-5BEA-44F9-B14F-A4058C2FC534}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1225,6 +1244,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD639DB-62F4-4DDF-9AA4-8EF5A1055E53}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1319,473 +1339,480 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4552E4A0-9B92-4C6D-8B2F-22DA1E71A23B}">
-  <dimension ref="A1:M11"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
+        <v>700</v>
+      </c>
+      <c r="I3">
+        <v>800</v>
+      </c>
+      <c r="J3">
+        <v>900</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
         <v>200</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-      <c r="I3">
-        <v>200</v>
-      </c>
-      <c r="J3">
-        <v>200</v>
-      </c>
-      <c r="K3">
-        <v>200</v>
-      </c>
-      <c r="L3">
-        <v>200</v>
-      </c>
-      <c r="M3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
       </c>
       <c r="D4">
         <v>300</v>
       </c>
       <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
+      <c r="H4">
+        <v>700</v>
+      </c>
+      <c r="I4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>900</v>
+      </c>
+      <c r="K4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
         <v>300</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4">
-        <v>300</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
-      </c>
-      <c r="I4">
-        <v>300</v>
-      </c>
-      <c r="J4">
-        <v>300</v>
-      </c>
-      <c r="K4">
-        <v>300</v>
-      </c>
-      <c r="L4">
-        <v>300</v>
-      </c>
-      <c r="M4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
       </c>
       <c r="E5">
         <v>400</v>
       </c>
       <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>700</v>
+      </c>
+      <c r="I5">
+        <v>800</v>
+      </c>
+      <c r="J5">
+        <v>900</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
         <v>400</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
-      </c>
-      <c r="H5">
-        <v>400</v>
-      </c>
-      <c r="I5">
-        <v>400</v>
-      </c>
-      <c r="J5">
-        <v>400</v>
-      </c>
-      <c r="K5">
-        <v>400</v>
-      </c>
-      <c r="L5">
-        <v>400</v>
-      </c>
-      <c r="M5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>500</v>
-      </c>
-      <c r="D6">
-        <v>500</v>
-      </c>
-      <c r="E6">
-        <v>500</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>700</v>
+      </c>
+      <c r="I6">
+        <v>800</v>
+      </c>
+      <c r="J6">
+        <v>900</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7">
         <v>500</v>
-      </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-      <c r="K6">
-        <v>500</v>
-      </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
-      <c r="M6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7">
-        <v>600</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>600</v>
-      </c>
-      <c r="F7">
-        <v>600</v>
       </c>
       <c r="G7">
         <v>600</v>
       </c>
       <c r="H7">
+        <v>700</v>
+      </c>
+      <c r="I7">
+        <v>800</v>
+      </c>
+      <c r="J7">
+        <v>900</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
         <v>600</v>
-      </c>
-      <c r="I7">
-        <v>600</v>
-      </c>
-      <c r="J7">
-        <v>600</v>
-      </c>
-      <c r="K7">
-        <v>600</v>
-      </c>
-      <c r="L7">
-        <v>600</v>
-      </c>
-      <c r="M7">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>700</v>
-      </c>
-      <c r="C8">
-        <v>700</v>
-      </c>
-      <c r="D8">
-        <v>700</v>
-      </c>
-      <c r="E8">
-        <v>700</v>
-      </c>
-      <c r="F8">
-        <v>700</v>
-      </c>
-      <c r="G8">
-        <v>700</v>
       </c>
       <c r="H8">
         <v>700</v>
       </c>
       <c r="I8">
+        <v>800</v>
+      </c>
+      <c r="J8">
+        <v>900</v>
+      </c>
+      <c r="K8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
         <v>700</v>
-      </c>
-      <c r="J8">
-        <v>700</v>
-      </c>
-      <c r="K8">
-        <v>700</v>
-      </c>
-      <c r="L8">
-        <v>700</v>
-      </c>
-      <c r="M8">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>800</v>
-      </c>
-      <c r="C9">
-        <v>800</v>
-      </c>
-      <c r="D9">
-        <v>800</v>
-      </c>
-      <c r="E9">
-        <v>800</v>
-      </c>
-      <c r="F9">
-        <v>800</v>
-      </c>
-      <c r="G9">
-        <v>800</v>
-      </c>
-      <c r="H9">
-        <v>800</v>
       </c>
       <c r="I9">
         <v>800</v>
       </c>
       <c r="J9">
+        <v>900</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>300</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>700</v>
+      </c>
+      <c r="I10">
         <v>800</v>
-      </c>
-      <c r="K9">
-        <v>800</v>
-      </c>
-      <c r="L9">
-        <v>800</v>
-      </c>
-      <c r="M9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <v>900</v>
-      </c>
-      <c r="D10">
-        <v>900</v>
-      </c>
-      <c r="E10">
-        <v>900</v>
-      </c>
-      <c r="F10">
-        <v>900</v>
-      </c>
-      <c r="G10">
-        <v>900</v>
-      </c>
-      <c r="H10">
-        <v>900</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
       </c>
       <c r="J10">
         <v>900</v>
       </c>
       <c r="K10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
+        <v>700</v>
+      </c>
+      <c r="I11">
+        <v>800</v>
+      </c>
+      <c r="J11">
         <v>900</v>
-      </c>
-      <c r="L10">
-        <v>900</v>
-      </c>
-      <c r="M10">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11">
-        <v>1000</v>
-      </c>
-      <c r="F11">
-        <v>1000</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
-      </c>
-      <c r="J11">
-        <v>1000</v>
       </c>
       <c r="K11">
         <v>1000</v>
       </c>
-      <c r="L11">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>700</v>
+      </c>
+      <c r="I12">
+        <v>800</v>
+      </c>
+      <c r="J12">
+        <v>900</v>
+      </c>
+      <c r="K12">
         <v>1000</v>
       </c>
-      <c r="M11">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>400</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>700</v>
+      </c>
+      <c r="I13">
+        <v>800</v>
+      </c>
+      <c r="J13">
+        <v>900</v>
+      </c>
+      <c r="K13">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000BDA4E-6132-4D5B-B968-55F5D2277471}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1836,6 +1863,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6166B0-B7F4-4F2A-9DAE-1AEC990E12D6}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1950,10 +1978,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4608348-DAA9-4ACD-91AD-BFB05D104774}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1971,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -1979,7 +2008,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -1987,7 +2016,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1995,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -2003,7 +2032,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -2011,7 +2040,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
